--- a/datasets/name to id map.xlsx
+++ b/datasets/name to id map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF Gaming\OneDrive - НИТУ МИСиС\Документы\Учеба\7 семестр\МРПО\Проект\software-service-project\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94257652-0A26-4C88-9D10-123145D5AB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CDD716-1B10-4CF0-93CC-0CAE7EDEBD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Sub-Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Bookcases</t>
+  </si>
+  <si>
+    <t>Bookcase</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Alphabetical Labels for Top Tab Filing</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Home/Office Personal File Carts</t>
+  </si>
+  <si>
+    <t>Можно поменять</t>
+  </si>
+  <si>
+    <t>Соответствуют данным таблицы</t>
+  </si>
+  <si>
+    <t>Для БД</t>
   </si>
 </sst>
 </file>
@@ -69,8 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,6 +138,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23A3E45A-F3D1-4889-B24F-FF577A8CE241}" name="Table1" displayName="Table1" ref="A2:C9" totalsRowShown="0">
+  <autoFilter ref="A2:C9" xr:uid="{23A3E45A-F3D1-4889-B24F-FF577A8CE241}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{558962FE-9A39-41F6-B69F-ADD8380C7407}" name="Sub-Category"/>
+    <tableColumn id="2" xr3:uid="{55E4979F-BEF8-4078-9E0B-4F4B018433CE}" name="id"/>
+    <tableColumn id="3" xr3:uid="{AD7B086B-2FC0-41C4-8DA2-31260CDB15B0}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,26 +415,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>